--- a/src/main/resources/excel-import-loan/import_loan_out_stand_interest.xlsx
+++ b/src/main/resources/excel-import-loan/import_loan_out_stand_interest.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pele/job/icoop-cm/icoop-backend/src/main/resources/excel-import-loan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0E962E-5BE9-0048-A594-6700FCA15E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A1057F-DDBD-FE48-9884-281FE04FE6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ธันวาคม" sheetId="2" r:id="rId1"/>
+    <sheet name="มกราคม" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="72">
   <si>
     <t>หน่วยงาน*</t>
   </si>
@@ -248,6 +249,9 @@
   </si>
   <si>
     <t>คงค้าง(ดอก)</t>
+  </si>
+  <si>
+    <t>ธันวาคม</t>
   </si>
 </sst>
 </file>
@@ -306,7 +310,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -612,11 +646,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD6140B-8A83-6A4F-AB71-12C6E089574D}">
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -640,7 +674,445 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3">
+        <v>503</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3">
+        <v>140357</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>21060</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3">
+        <v>39993</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3">
+        <v>39413</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3">
+        <v>111323</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3">
+        <v>47324</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3">
+        <v>63421</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3">
+        <v>39296</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3">
+        <v>53320</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="3">
+        <v>177329</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10378</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="3">
+        <v>41626</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="3">
+        <v>816</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3">
+        <v>10841</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="3">
+        <v>8759</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="3">
+        <v>18110</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E1" s="1" t="s">

--- a/src/main/resources/excel-import-loan/import_loan_out_stand_interest.xlsx
+++ b/src/main/resources/excel-import-loan/import_loan_out_stand_interest.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pele/job/icoop-cm/icoop-backend/src/main/resources/excel-import-loan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A1057F-DDBD-FE48-9884-281FE04FE6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785B447E-7B70-AE4A-87FC-D441FB7FF75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ธันวาคม" sheetId="2" r:id="rId1"/>
     <sheet name="มกราคม" sheetId="1" r:id="rId2"/>
+    <sheet name="กุมภาพันธ์" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="116">
   <si>
     <t>หน่วยงาน*</t>
   </si>
@@ -252,6 +253,138 @@
   </si>
   <si>
     <t>ธันวาคม</t>
+  </si>
+  <si>
+    <t>กุมภาพันธ์</t>
+  </si>
+  <si>
+    <t>02621</t>
+  </si>
+  <si>
+    <t>นายมานพ ฟักทอง</t>
+  </si>
+  <si>
+    <t>02628</t>
+  </si>
+  <si>
+    <t>นายบุญยโชติ เจริญชัย</t>
+  </si>
+  <si>
+    <t>03066</t>
+  </si>
+  <si>
+    <t>นายดวงจันทร์ อินสา</t>
+  </si>
+  <si>
+    <t>03368</t>
+  </si>
+  <si>
+    <t>น.ส.ภัทราวดี จอมนวล</t>
+  </si>
+  <si>
+    <t>04214</t>
+  </si>
+  <si>
+    <t>นายชัยยากร อินแดง</t>
+  </si>
+  <si>
+    <t>04424</t>
+  </si>
+  <si>
+    <t>นางสุภาพร แก้วสม</t>
+  </si>
+  <si>
+    <t>04788</t>
+  </si>
+  <si>
+    <t>นางปราณปราณี บุญปั๋น</t>
+  </si>
+  <si>
+    <t>04882</t>
+  </si>
+  <si>
+    <t>น.ส.ดรรชกร งามบุบผา</t>
+  </si>
+  <si>
+    <t>04993</t>
+  </si>
+  <si>
+    <t>นายเชาว์เลิศ โกมาร</t>
+  </si>
+  <si>
+    <t>05026</t>
+  </si>
+  <si>
+    <t>นายวิทูร จักร์แก้ว</t>
+  </si>
+  <si>
+    <t>05028</t>
+  </si>
+  <si>
+    <t>น.ส.เพ็ญนภา มณีเลิศ</t>
+  </si>
+  <si>
+    <t>05145</t>
+  </si>
+  <si>
+    <t>นายสยาม สุวรรณคฤหาสน์</t>
+  </si>
+  <si>
+    <t>05257</t>
+  </si>
+  <si>
+    <t>นายชัยพล ริญญา</t>
+  </si>
+  <si>
+    <t>05268</t>
+  </si>
+  <si>
+    <t>นายบุญส่ง พระนม</t>
+  </si>
+  <si>
+    <t>05369</t>
+  </si>
+  <si>
+    <t>นายนพดล บุญสม</t>
+  </si>
+  <si>
+    <t>05407</t>
+  </si>
+  <si>
+    <t>น.ส.กรรณิการ์ เกตุสุจา</t>
+  </si>
+  <si>
+    <t>05423</t>
+  </si>
+  <si>
+    <t>นายพิชญุตม์ ตั้งพานิชยกุล</t>
+  </si>
+  <si>
+    <t>05425</t>
+  </si>
+  <si>
+    <t>น.ส.ชญาณิศา สนินัด</t>
+  </si>
+  <si>
+    <t>05431</t>
+  </si>
+  <si>
+    <t>นายณัฐวุฒิ หาญไฟฟ้า</t>
+  </si>
+  <si>
+    <t>05441</t>
+  </si>
+  <si>
+    <t>นายกิตติคุณ ถาปินตา</t>
+  </si>
+  <si>
+    <t>งานวางแผนสถิติและวิชาการ</t>
+  </si>
+  <si>
+    <t>05445</t>
+  </si>
+  <si>
+    <t>นางณัฐกาญจ์ ธรรมกาศ</t>
   </si>
 </sst>
 </file>
@@ -310,7 +443,67 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -649,7 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD6140B-8A83-6A4F-AB71-12C6E089574D}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -1075,9 +1268,9 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1088,7 +1281,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1653,6 +1846,995 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E735EE20-A370-8B4F-A9B5-676AFD66E8E2}">
+  <dimension ref="A1:F48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3">
+        <v>43025</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="3">
+        <v>64543</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="3">
+        <v>12713</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="3">
+        <v>24512</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3">
+        <v>385</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3">
+        <v>133285</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="3">
+        <v>38014</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3">
+        <v>19458</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="3">
+        <v>38566</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3">
+        <v>18277</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="3">
+        <v>34498</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>35422</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>108035</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="3">
+        <v>47545</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3">
+        <v>45761</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="3">
+        <v>46906</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="3">
+        <v>52396</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="3">
+        <v>8262</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3">
+        <v>27990</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="3">
+        <v>44146</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="3">
+        <v>21667</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3">
+        <v>61548</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="3">
+        <v>38135</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="3">
+        <v>19065</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="3">
+        <v>51745</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="3">
+        <v>40077</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="3">
+        <v>29534</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="3">
+        <v>27101</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="3">
+        <v>172092</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="3">
+        <v>8934</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="3">
+        <v>190830</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="3">
+        <v>9336</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="3">
+        <v>40397</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="3">
+        <v>12912</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="3">
+        <v>43625</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="3">
+        <v>35188</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="3">
+        <v>583</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="3">
+        <v>3930</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="3">
+        <v>10279</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="3">
+        <v>8253</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="3">
+        <v>25150</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="3">
+        <v>5478</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="3">
+        <v>5478</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2627</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="3">
+        <v>17386</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="3">
+        <v>7926</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="3">
+        <v>32710</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
